--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_39.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_39.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_0</t>
+          <t>model_1_39_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9938993592087889</v>
+        <v>0.8923313960067504</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7207722687483464</v>
+        <v>0.6601310971545093</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7035970785187148</v>
+        <v>0.6683163843015421</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9925335570110839</v>
+        <v>0.6157144708458184</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02560308433617337</v>
+        <v>0.451862098219024</v>
       </c>
       <c r="G2" t="n">
-        <v>1.867197124605287</v>
+        <v>2.272704918280195</v>
       </c>
       <c r="H2" t="n">
-        <v>1.060216063709699</v>
+        <v>1.186413061232337</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005784911659663795</v>
+        <v>0.8490277900633482</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2899748040869312</v>
+        <v>2.16455306233492</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1600096382602416</v>
+        <v>0.6722068864709911</v>
       </c>
       <c r="L2" t="n">
-        <v>1.003571106804611</v>
+        <v>0.6308505005945728</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1668215798265938</v>
+        <v>0.7008241252881464</v>
       </c>
       <c r="N2" t="n">
-        <v>137.3300849057444</v>
+        <v>35.58875647627172</v>
       </c>
       <c r="O2" t="n">
-        <v>216.5570135221774</v>
+        <v>56.30964549903113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_1</t>
+          <t>model_1_39_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9939600725696518</v>
+        <v>0.8913789048155698</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7207108903267828</v>
+        <v>0.6596977788158358</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7034244236429521</v>
+        <v>0.6681935836331026</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9910372259372515</v>
+        <v>0.6042261469891534</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0253482833485877</v>
+        <v>0.455859499989079</v>
       </c>
       <c r="G3" t="n">
-        <v>1.867607562392904</v>
+        <v>2.275602520006153</v>
       </c>
       <c r="H3" t="n">
-        <v>1.060833640189197</v>
+        <v>1.186852312102954</v>
       </c>
       <c r="I3" t="n">
-        <v>0.006944251266030596</v>
+        <v>0.8744097143763059</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2893671343126535</v>
+        <v>2.160374527108602</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1592114422665271</v>
+        <v>0.6751736813510129</v>
       </c>
       <c r="L3" t="n">
-        <v>1.003535567276301</v>
+        <v>0.6275848165105251</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1659894029769334</v>
+        <v>0.7039172227683228</v>
       </c>
       <c r="N3" t="n">
-        <v>137.3500885384847</v>
+        <v>35.57114126200735</v>
       </c>
       <c r="O3" t="n">
-        <v>216.5770171549177</v>
+        <v>56.29203028476676</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_2</t>
+          <t>model_1_39_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9940109258970677</v>
+        <v>0.8904179253687109</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7206460851770458</v>
+        <v>0.6592459992322974</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7032360335823458</v>
+        <v>0.6680626222204037</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9893358153077433</v>
+        <v>0.5927219039065099</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02513486281209558</v>
+        <v>0.4598925251523873</v>
       </c>
       <c r="G4" t="n">
-        <v>1.868040914727596</v>
+        <v>2.278623572161528</v>
       </c>
       <c r="H4" t="n">
-        <v>1.061507500512503</v>
+        <v>1.187320753482598</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008262484084941749</v>
+        <v>0.8998268101027742</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2916666233993116</v>
+        <v>2.156261649689843</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1585397830580564</v>
+        <v>0.6781537621752071</v>
       </c>
       <c r="L4" t="n">
-        <v>1.003505799474887</v>
+        <v>0.6242900298355802</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1652891498454319</v>
+        <v>0.7070241718028207</v>
       </c>
       <c r="N4" t="n">
-        <v>137.3669988797905</v>
+        <v>35.55352491554074</v>
       </c>
       <c r="O4" t="n">
-        <v>216.5939274962235</v>
+        <v>56.27441393830015</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_3</t>
+          <t>model_1_39_5</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.994052200535778</v>
+        <v>0.8894500632226332</v>
       </c>
       <c r="C5" t="n">
-        <v>0.720577995744984</v>
+        <v>0.6587717599453679</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7030318562789964</v>
+        <v>0.6679252021471941</v>
       </c>
       <c r="E5" t="n">
-        <v>0.987436680528358</v>
+        <v>0.5812156759243992</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02496164198300384</v>
+        <v>0.4639544355319519</v>
       </c>
       <c r="G5" t="n">
-        <v>1.868496229073316</v>
+        <v>2.281794812456897</v>
       </c>
       <c r="H5" t="n">
-        <v>1.062237830887703</v>
+        <v>1.187812297116395</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00973391123503823</v>
+        <v>0.9252482912007445</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2939439576378305</v>
+        <v>2.152212154768387</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1579925377446791</v>
+        <v>0.6811420083447738</v>
       </c>
       <c r="L5" t="n">
-        <v>1.003481638710764</v>
+        <v>0.6209716453347425</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1647186071661101</v>
+        <v>0.7101396337983482</v>
       </c>
       <c r="N5" t="n">
-        <v>137.3808299061383</v>
+        <v>35.53593786172467</v>
       </c>
       <c r="O5" t="n">
-        <v>216.6077585225713</v>
+        <v>56.25682688448408</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_4</t>
+          <t>model_1_39_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9940843336594529</v>
+        <v>0.8884748801461966</v>
       </c>
       <c r="C6" t="n">
-        <v>0.720506714565776</v>
+        <v>0.658290597425974</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7028136315106737</v>
+        <v>0.667779643353446</v>
       </c>
       <c r="E6" t="n">
-        <v>0.985349252109586</v>
+        <v>0.5697004444968792</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02482678613693954</v>
+        <v>0.4680470702901215</v>
       </c>
       <c r="G6" t="n">
-        <v>1.868972886646901</v>
+        <v>2.285012348439634</v>
       </c>
       <c r="H6" t="n">
-        <v>1.063018408230594</v>
+        <v>1.188332952481649</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01135122606840583</v>
+        <v>0.9506896642144358</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2961978216034493</v>
+        <v>2.14822714695009</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1575651805981878</v>
+        <v>0.6841396570073406</v>
       </c>
       <c r="L6" t="n">
-        <v>1.003462829077393</v>
+        <v>0.6176281605012455</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1642730565411415</v>
+        <v>0.7132648985704686</v>
       </c>
       <c r="N6" t="n">
-        <v>137.3916642450354</v>
+        <v>35.51837282115815</v>
       </c>
       <c r="O6" t="n">
-        <v>216.6185928614684</v>
+        <v>56.23926184391756</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_5</t>
+          <t>model_1_39_7</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9941075782947818</v>
+        <v>0.8874937846729485</v>
       </c>
       <c r="C7" t="n">
-        <v>0.720432512131327</v>
+        <v>0.6577983233955647</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7025813609249039</v>
+        <v>0.6676273364194085</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9830802217853966</v>
+        <v>0.5581882240773526</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02472923337501556</v>
+        <v>0.4721645181129135</v>
       </c>
       <c r="G7" t="n">
-        <v>1.869469078667731</v>
+        <v>2.288304187147694</v>
       </c>
       <c r="H7" t="n">
-        <v>1.063849226648071</v>
+        <v>1.188877745553437</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01310924390876437</v>
+        <v>0.9761243848062466</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2984257267577315</v>
+        <v>2.144304472285567</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1572553127083965</v>
+        <v>0.687142283746906</v>
       </c>
       <c r="L7" t="n">
-        <v>1.003449222461591</v>
+        <v>0.6142644045929663</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1639499969337667</v>
+        <v>0.7163953533466316</v>
       </c>
       <c r="N7" t="n">
-        <v>137.399538395453</v>
+        <v>35.50085559760782</v>
       </c>
       <c r="O7" t="n">
-        <v>216.626467011886</v>
+        <v>56.22174462036723</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_6</t>
+          <t>model_1_39_8</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9941223365879628</v>
+        <v>0.886506620993894</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7203555166041006</v>
+        <v>0.6573031241156958</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7023357336386837</v>
+        <v>0.6674675320146785</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9806387946774066</v>
+        <v>0.5466762593869212</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02466729597566649</v>
+        <v>0.4763074328973489</v>
       </c>
       <c r="G8" t="n">
-        <v>1.869983948112826</v>
+        <v>2.29161558701236</v>
       </c>
       <c r="H8" t="n">
-        <v>1.064727821208592</v>
+        <v>1.189449356643165</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01500083273683109</v>
+        <v>1.001558540398618</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3006281179633289</v>
+        <v>2.140443968117985</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1570582566300368</v>
+        <v>0.6901502973246834</v>
       </c>
       <c r="L8" t="n">
-        <v>1.003440583460705</v>
+        <v>0.6108798434076366</v>
       </c>
       <c r="M8" t="n">
-        <v>0.163744551770189</v>
+        <v>0.7195314242898614</v>
       </c>
       <c r="N8" t="n">
-        <v>137.404553924489</v>
+        <v>35.48338353160383</v>
       </c>
       <c r="O8" t="n">
-        <v>216.631482540922</v>
+        <v>56.20427255436324</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_7</t>
+          <t>model_1_39_9</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9941289322489252</v>
+        <v>0.8855149074425522</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7202758004868945</v>
+        <v>0.6567969942656751</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7020781179574342</v>
+        <v>0.6673020330040089</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9780326493123372</v>
+        <v>0.5351763385286585</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02463961539756806</v>
+        <v>0.4804694425224539</v>
       </c>
       <c r="G9" t="n">
-        <v>1.870517010155642</v>
+        <v>2.295000079649962</v>
       </c>
       <c r="H9" t="n">
-        <v>1.065649297563006</v>
+        <v>1.190041337008146</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01702004332098052</v>
+        <v>1.02696608674491</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3027981523449947</v>
+        <v>2.136644345096426</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1569701098858253</v>
+        <v>0.693159031191583</v>
       </c>
       <c r="L9" t="n">
-        <v>1.003436722585995</v>
+        <v>0.6074796826601792</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1636526524365875</v>
+        <v>0.7226682461864127</v>
       </c>
       <c r="N9" t="n">
-        <v>137.4067994986071</v>
+        <v>35.46598329552128</v>
       </c>
       <c r="O9" t="n">
-        <v>216.6337281150402</v>
+        <v>56.18687231828068</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_8</t>
+          <t>model_1_39_0</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9941276971859506</v>
+        <v>0.9112470610093515</v>
       </c>
       <c r="C10" t="n">
-        <v>0.720193566186772</v>
+        <v>0.6460238294924319</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7018088346911328</v>
+        <v>0.659851431461238</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9752700549823705</v>
+        <v>0.9338920669626095</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0246447986926644</v>
+        <v>0.3724770986901051</v>
       </c>
       <c r="G10" t="n">
-        <v>1.871066911299216</v>
+        <v>2.367040282094503</v>
       </c>
       <c r="H10" t="n">
-        <v>1.066612508192625</v>
+        <v>1.216691706715938</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01916046871150049</v>
+        <v>0.146056689711759</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3049398196664899</v>
+        <v>2.380358521172993</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1569866194701459</v>
+        <v>0.6103090190142246</v>
       </c>
       <c r="L10" t="n">
-        <v>1.003437445549688</v>
+        <v>0.6957042091749195</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1636698648680922</v>
+        <v>0.6362911374674957</v>
       </c>
       <c r="N10" t="n">
-        <v>137.4063788142824</v>
+        <v>35.97515944615812</v>
       </c>
       <c r="O10" t="n">
-        <v>216.6333074307154</v>
+        <v>56.69604846891753</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_9</t>
+          <t>model_1_39_1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9941189609511276</v>
+        <v>0.9107866300909784</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7201090125453005</v>
+        <v>0.631481237942488</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7015288250243786</v>
+        <v>0.6635381082545053</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9723580392386036</v>
+        <v>0.8979208397644611</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02468146280133884</v>
+        <v>0.3744094287579681</v>
       </c>
       <c r="G11" t="n">
-        <v>1.871632321889069</v>
+        <v>2.464286658751454</v>
       </c>
       <c r="H11" t="n">
-        <v>1.067614086534712</v>
+        <v>1.203504677592223</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02141666404497437</v>
+        <v>0.2255303342206501</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3070481884510479</v>
+        <v>2.332353654671119</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1571033507005463</v>
+        <v>0.6118900462975093</v>
       </c>
       <c r="L11" t="n">
-        <v>1.003442559443242</v>
+        <v>0.6941255888833544</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1637915655886377</v>
+        <v>0.6379394723554076</v>
       </c>
       <c r="N11" t="n">
-        <v>137.4034056219653</v>
+        <v>35.96481070209477</v>
       </c>
       <c r="O11" t="n">
-        <v>216.6303342383983</v>
+        <v>56.68569972485417</v>
       </c>
     </row>
   </sheetData>
